--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_275.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_275.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.38, 142.38)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -528,677 +538,642 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(31.74, 33.88)]</t>
+          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(108.28, 120.52)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(37.54, 45.38)]</t>
+          <t>[('0:00:32.320000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[('0:00:36.280000', '0:00:38'), ('0:00:36.140000', '0:00:37.580000'), ('0:00:09.620000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:14.160000', '0:00:28.960000'), ('0:00:56.780000', '0:01:05.580000'), ('0:00:01.920000', '0:00:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.72, 22.2)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:03.900000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_135</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(52.750498, 59.809365)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[('0:00:07.646772', '0:00:12.917702')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4074074074074074</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.22, 5.02)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09999999999999999</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B', 'B/3', 'E']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.090897, 16.615704)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(153.617981, 161.988775)]</t>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:00.380000', '0:00:21.840000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(133.78, 135.34)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(27.963197, 36.229501)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.92, 8.32)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(41.38, 43.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
